--- a/medicine/Enfance/Michelle_Nikly/Michelle_Nikly.xlsx
+++ b/medicine/Enfance/Michelle_Nikly/Michelle_Nikly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michelle Nikly, née le 20 janvier 1946 à Constantine en Algérie, est une illustratrice, adaptatrice, traductrice, auteure et écrivaine française, notamment en littérature jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle passe son enfance dans plusieurs pays du Maghreb. Elle étudie à l'École nationale supérieure des beaux-arts de Lyon. Dans les années 1970, elle commence sa carrière professionnelle dans la publicité. À partir de 1977, elle alterne les expériences en free-lance en tant qu'auteure, illustratrice, traductrice, adaptatrice. Elle publie et collabore avec plusieurs maisons d'éditions, notamment Gallimard, Ouest-France éditions, Nathan, Albin Michel, Nord-Sud. Ses premiers livres s'inspirent beaucoup des contes japonais.
-Elle est l'épouse de l'illustrateur Jean Claverie avec lequel elle a deux enfants, Louis et François, nés respectivement en 1977 et 1982[1],[2],[3],[4],[5]. Ils collaborent à plusieurs livres. 
+Elle est l'épouse de l'illustrateur Jean Claverie avec lequel elle a deux enfants, Louis et François, nés respectivement en 1977 et 1982. Ils collaborent à plusieurs livres. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1991 : Elle obtient le Prix Sorcières, et le Prix des Libraires (Paris) pour L’Art du pot, avec Jean Claverie, chez Albin Michel Jeunesse</t>
         </is>
